--- a/informe/datos.xlsx
+++ b/informe/datos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\uoc\HTMLiCSS\PEC3\pec3\pec3.2\informe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AECD8D-1355-4DC3-BE64-E7B932A3F0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C52AFB-2C2C-406D-AA7E-F6A7287D1AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
   <si>
     <t>Título</t>
   </si>
@@ -73,6 +74,21 @@
   </si>
   <si>
     <t>Load(ms)</t>
+  </si>
+  <si>
+    <t>presentacion</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>1,33 s</t>
+  </si>
+  <si>
+    <t>detalle</t>
+  </si>
+  <si>
+    <t>enlaces</t>
   </si>
 </sst>
 </file>
@@ -426,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,4 +991,577 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF80BC2-DD15-4CAC-8A3B-17A0DB5D1CB5}">
+  <dimension ref="A2:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>262</v>
+      </c>
+      <c r="C3">
+        <v>263</v>
+      </c>
+      <c r="D3">
+        <v>264</v>
+      </c>
+      <c r="E3">
+        <v>287</v>
+      </c>
+      <c r="F3">
+        <v>257</v>
+      </c>
+      <c r="G3">
+        <v>244</v>
+      </c>
+      <c r="H3">
+        <v>264</v>
+      </c>
+      <c r="I3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.67</v>
+      </c>
+      <c r="C4">
+        <v>1.67</v>
+      </c>
+      <c r="D4">
+        <v>1.71</v>
+      </c>
+      <c r="E4">
+        <v>1.72</v>
+      </c>
+      <c r="F4">
+        <v>1.73</v>
+      </c>
+      <c r="G4">
+        <v>1.68</v>
+      </c>
+      <c r="H4">
+        <v>1.71</v>
+      </c>
+      <c r="I4">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>349.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>136.63999999999999</v>
+      </c>
+      <c r="C7">
+        <v>137.47</v>
+      </c>
+      <c r="D7">
+        <v>137.53</v>
+      </c>
+      <c r="E7">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="F7">
+        <v>137.91999999999999</v>
+      </c>
+      <c r="G7">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="H7">
+        <v>137.47999999999999</v>
+      </c>
+      <c r="I7">
+        <v>137.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>249</v>
+      </c>
+      <c r="C11">
+        <v>216</v>
+      </c>
+      <c r="D11">
+        <v>195</v>
+      </c>
+      <c r="E11">
+        <v>213</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <v>215</v>
+      </c>
+      <c r="H11">
+        <v>240</v>
+      </c>
+      <c r="I11">
+        <v>226.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>973</v>
+      </c>
+      <c r="C12">
+        <v>626</v>
+      </c>
+      <c r="D12">
+        <v>673</v>
+      </c>
+      <c r="E12">
+        <v>483</v>
+      </c>
+      <c r="F12">
+        <v>978</v>
+      </c>
+      <c r="G12">
+        <v>541</v>
+      </c>
+      <c r="H12">
+        <v>869</v>
+      </c>
+      <c r="I12">
+        <v>736.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>120.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>110.45</v>
+      </c>
+      <c r="C15">
+        <v>107.21</v>
+      </c>
+      <c r="D15">
+        <v>107.7</v>
+      </c>
+      <c r="E15">
+        <v>107.26</v>
+      </c>
+      <c r="F15">
+        <v>111.65</v>
+      </c>
+      <c r="G15">
+        <v>106.84</v>
+      </c>
+      <c r="H15">
+        <v>111.5</v>
+      </c>
+      <c r="I15">
+        <v>108.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>163</v>
+      </c>
+      <c r="C19">
+        <v>212</v>
+      </c>
+      <c r="D19">
+        <v>173</v>
+      </c>
+      <c r="E19">
+        <v>179</v>
+      </c>
+      <c r="F19">
+        <v>192</v>
+      </c>
+      <c r="G19">
+        <v>168</v>
+      </c>
+      <c r="H19">
+        <v>732</v>
+      </c>
+      <c r="I19">
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>580</v>
+      </c>
+      <c r="C20">
+        <v>753</v>
+      </c>
+      <c r="D20">
+        <v>737</v>
+      </c>
+      <c r="E20">
+        <v>683</v>
+      </c>
+      <c r="F20">
+        <v>671</v>
+      </c>
+      <c r="G20">
+        <v>634</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>695.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>322.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>306.54000000000002</v>
+      </c>
+      <c r="C23">
+        <v>306.58</v>
+      </c>
+      <c r="D23">
+        <v>306.16000000000003</v>
+      </c>
+      <c r="E23">
+        <v>306.58999999999997</v>
+      </c>
+      <c r="F23">
+        <v>306.58999999999997</v>
+      </c>
+      <c r="G23">
+        <v>306.89</v>
+      </c>
+      <c r="H23">
+        <v>302.27999999999997</v>
+      </c>
+      <c r="I23">
+        <v>306.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>224</v>
+      </c>
+      <c r="C27">
+        <v>169</v>
+      </c>
+      <c r="D27">
+        <v>159</v>
+      </c>
+      <c r="E27">
+        <v>181</v>
+      </c>
+      <c r="F27">
+        <v>206</v>
+      </c>
+      <c r="G27">
+        <v>180</v>
+      </c>
+      <c r="H27">
+        <v>171</v>
+      </c>
+      <c r="I27">
+        <v>181.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>790</v>
+      </c>
+      <c r="C28">
+        <v>647</v>
+      </c>
+      <c r="D28">
+        <v>634</v>
+      </c>
+      <c r="E28">
+        <v>644</v>
+      </c>
+      <c r="F28">
+        <v>704</v>
+      </c>
+      <c r="G28">
+        <v>685</v>
+      </c>
+      <c r="H28">
+        <v>648</v>
+      </c>
+      <c r="I28">
+        <v>665.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>134.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>121.74</v>
+      </c>
+      <c r="C31">
+        <v>122.51</v>
+      </c>
+      <c r="D31">
+        <v>121.74</v>
+      </c>
+      <c r="E31">
+        <v>122.14</v>
+      </c>
+      <c r="F31">
+        <v>121.75</v>
+      </c>
+      <c r="G31">
+        <v>122.14</v>
+      </c>
+      <c r="H31">
+        <v>121.36</v>
+      </c>
+      <c r="I31">
+        <v>121.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>202</v>
+      </c>
+      <c r="C35">
+        <v>219</v>
+      </c>
+      <c r="D35">
+        <v>326</v>
+      </c>
+      <c r="E35">
+        <v>222</v>
+      </c>
+      <c r="F35">
+        <v>225</v>
+      </c>
+      <c r="G35">
+        <v>224</v>
+      </c>
+      <c r="H35">
+        <v>254</v>
+      </c>
+      <c r="I35">
+        <v>228.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>536</v>
+      </c>
+      <c r="C36">
+        <v>503</v>
+      </c>
+      <c r="D36">
+        <v>614</v>
+      </c>
+      <c r="E36">
+        <v>541</v>
+      </c>
+      <c r="F36">
+        <v>577</v>
+      </c>
+      <c r="G36">
+        <v>553</v>
+      </c>
+      <c r="H36">
+        <v>598</v>
+      </c>
+      <c r="I36">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>10.17</v>
+      </c>
+      <c r="C39">
+        <v>10.17</v>
+      </c>
+      <c r="D39">
+        <v>10.56</v>
+      </c>
+      <c r="E39">
+        <v>10.6</v>
+      </c>
+      <c r="F39">
+        <v>10.59</v>
+      </c>
+      <c r="G39">
+        <v>10.17</v>
+      </c>
+      <c r="H39">
+        <v>11.36</v>
+      </c>
+      <c r="I39">
+        <v>10.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>